--- a/backend/routes/training_set.xlsx
+++ b/backend/routes/training_set.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a769a88f1f7a71a/Desktop/ai-mini-project/chatbot/backend/routes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD83089E-A379-48F5-B786-617E008E75C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F3786-D64F-4A18-BF97-73DDF62ED56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{54A98442-9218-4865-998B-FFAE411CD831}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>Questions</t>
   </si>
@@ -44,29 +33,302 @@
     <t>Answers</t>
   </si>
   <si>
-    <t>How are you?</t>
-  </si>
-  <si>
-    <t>Fine, Please be professional.</t>
-  </si>
-  <si>
-    <t>What is the intake of students in the 'IT' branch?</t>
-  </si>
-  <si>
-    <t>The intake in our IT branch is 210. Anything else?</t>
+    <t>What are the eligibility criteria for admissions through MHT-CET and JEE scores?</t>
+  </si>
+  <si>
+    <t>Can I apply for admission based on both MHT-CET and JEE scores?</t>
+  </si>
+  <si>
+    <t>Are there any specific subject requirements for admissions through MHT-CET and JEE?</t>
+  </si>
+  <si>
+    <t>How do I submit my MHT-CET and JEE scores during the application process?</t>
+  </si>
+  <si>
+    <t>Is there a separate application process for candidates applying with JEE scores?</t>
+  </si>
+  <si>
+    <t>Can I use my JEE Main score for admissions into all programs offered by the college?</t>
+  </si>
+  <si>
+    <t>What is the process for calculating the composite score for admissions?</t>
+  </si>
+  <si>
+    <t>Are there any additional exams or assessments required for admissions?</t>
+  </si>
+  <si>
+    <t>What is the cutoff score for MHT-CET and JEE for Computer Science?</t>
+  </si>
+  <si>
+    <t>What is the cutoff score for MHT-CET and JEE for AIDS?</t>
+  </si>
+  <si>
+    <t>What is the cutoff score for MHT-CET and JEE for EnTC?</t>
+  </si>
+  <si>
+    <t>What is the cutoff score for MHT-CET and JEE for Civil?</t>
+  </si>
+  <si>
+    <t>What is the cutoff score for MHT-CET and JEE for IT?</t>
+  </si>
+  <si>
+    <t>Are there any reservation criteria for admissions through JEE Main?</t>
+  </si>
+  <si>
+    <t>Can I apply for admissions before receiving my MHT-CET or JEE scores?</t>
+  </si>
+  <si>
+    <t>How are the counseling and seat allocation processes conducted?</t>
+  </si>
+  <si>
+    <t>What are the documents required for admission?</t>
+  </si>
+  <si>
+    <t>What is the fee structure for programs based on MHT-CET and JEE admissions?</t>
+  </si>
+  <si>
+    <t>Are there any scholarships or financial aid options available for admitted students?</t>
+  </si>
+  <si>
+    <t>Can I transfer to another program after being admitted?</t>
+  </si>
+  <si>
+    <t>What is the process for changing my program preference after admission?</t>
+  </si>
+  <si>
+    <t>What are the accommodation options available for admitted students?</t>
+  </si>
+  <si>
+    <t>Can I apply for on-campus housing after being admitted?</t>
+  </si>
+  <si>
+    <t>What are the important dates and deadlines for the admissions process?</t>
+  </si>
+  <si>
+    <t>Is there a grace period for submitting required documents after the deadline?</t>
+  </si>
+  <si>
+    <t>How are second-round admissions conducted for vacant seats?</t>
+  </si>
+  <si>
+    <t>What is the process for international or NRI students applying for admissions?</t>
+  </si>
+  <si>
+    <t>Are there any additional requirements or documentation for international applicants?</t>
+  </si>
+  <si>
+    <t>Does the college have collaborations with industries for internships or placements?</t>
+  </si>
+  <si>
+    <t>How can I explore internship opportunities during my undergraduate program?</t>
+  </si>
+  <si>
+    <t>What are the campus life and extracurricular activities available for students?</t>
+  </si>
+  <si>
+    <t>Can I participate in clubs or organizations related to my field of study?</t>
+  </si>
+  <si>
+    <t>Candidates must be Indian nationals. Candidates must have passed the HSC or equivalent examination with Physics, Chemistry, and Mathematics as compulsory subjects along with one of the following subjects: Biotechnology, Biology, Technical Vocational subjects. Candidates must have secured a minimum of 45% marks (40% for reserved category candidates) in the qualifying examination.</t>
+  </si>
+  <si>
+    <t>Yes, you can apply for admission based on both MHT-CET and JEE scores. The college will consider the higher of the two scores for admission.</t>
+  </si>
+  <si>
+    <t>The cutoff score for Computer Science varies from college to college. It also depends on the number of seats available and the performance of the candidates in the entrance exam. However, the general cutoff score for Computer Science in top engineering colleges in Maharashtra is around 180 for MHT-CET and 90 for JEE Main.</t>
+  </si>
+  <si>
+    <t>No, there are no specific subject requirements for admissions through MHT-CET and JEE. However, it is advisable to have a strong foundation in Physics, Chemistry, and Mathematics as these subjects are the core subjects for engineering studies.</t>
+  </si>
+  <si>
+    <t>You will need to upload your MHT-CET and JEE scores along with other required documents during the online application process. The college will provide the details of the application process in due course.</t>
+  </si>
+  <si>
+    <t>No, there is no separate application process for candidates applying with JEE scores. You can apply through the same online application form as candidates applying with MHT-CET scores.</t>
+  </si>
+  <si>
+    <t>No, you can only use your JEE Main score for admissions into programs that are offered through JEE Main. For programs that are offered through MHT-CET, you will need to take the MHT-CET exam.</t>
+  </si>
+  <si>
+    <t>The composite score for admissions is calculated by taking a weighted average of the MHT-CET and JEE scores. The weightage for each exam is decided by the college.</t>
+  </si>
+  <si>
+    <t>No, there are no additional exams or assessments required for admissions through MHT-CET and JEE. However, some colleges may conduct an interview or group discussion as part of the admission process.</t>
+  </si>
+  <si>
+    <t>The cutoff score for IT is slightly lower than the cutoff score for Computer Science. The general cutoff score for IT in top engineering colleges in Maharashtra is around 170 for MHT-CET and 85 for JEE Main.</t>
+  </si>
+  <si>
+    <t>The cutoff score for AIDS is lower than the cutoff scores for Computer Science and IT. The general cutoff score for AIDS in top engineering colleges in Maharashtra is around 150 for MHT-CET and 75 for JEE Main.</t>
+  </si>
+  <si>
+    <t>The cutoff score for EnTC is slightly lower than the cutoff score for AIDS. The general cutoff score for EnTC in top engineering colleges in Maharashtra is around 140 for MHT-CET and 70 for JEE Main.</t>
+  </si>
+  <si>
+    <t>The cutoff score for Civil is lower than the cutoff scores for other engineering branches. The general cutoff score for Civil in top engineering colleges in Maharashtra is around 130 for MHT-CET and 65 for JEE Main.</t>
+  </si>
+  <si>
+    <t>Yes, there are reservation criteria for admissions through JEE Main. The college will reserve a certain percentage of seats for candidates belonging to Scheduled Castes (SC), Scheduled Tribes (ST), Other Backward Classes (OBC), and Persons with Disabilities (PwD).</t>
+  </si>
+  <si>
+    <t>No, you cannot apply for admissions before receiving your MHT-CET or JEE scores. The college will require your scores to process your application.</t>
+  </si>
+  <si>
+    <t>The counseling and seat allocation process is conducted online by the college. The college will release a merit list based on the composite scores of the candidates. The candidates will be called for counseling based on their rank in the merit list. In the counseling, the candidates will be given the option to choose their preferred college and program.</t>
+  </si>
+  <si>
+    <t>The required documents for admission vary from college to college. However, some of the common documents required are: Mark sheets of the qualifying examination MHT-CET or JEE scores Character certificate Medical certificate Caste certificate (if applicable)</t>
+  </si>
+  <si>
+    <t>The fee structure for programs based on MHT-CET and JEE admissions varies from college to college. However, the fees are generally in the range of INR 50,000 to INR 100,000 per year.</t>
+  </si>
+  <si>
+    <t>Yes, there are a number of scholarships and financial aid options available for admitted students. These scholarships are offered by the college, the government, and private organizations.</t>
+  </si>
+  <si>
+    <t>Yes, you can transfer to another program after being admitted. However, the transfer is subject to the approval of the college.</t>
+  </si>
+  <si>
+    <t>If you want to change your program preference after admission, you will need to contact the college and submit a request. The college will consider your request and decide whether to approve it.</t>
+  </si>
+  <si>
+    <t>The college may have its own hostel facilities or may have tie-ups with private hostels. The cost of accommodation varies depending on the type of accommodation and the facilities offered.</t>
+  </si>
+  <si>
+    <t>Yes, you can apply for on-campus housing after being admitted. However, the availability of on-campus housing is limited and it is advisable to apply early.</t>
+  </si>
+  <si>
+    <t>The important dates and deadlines for the admissions process vary from college to college. However, some of the common dates are: Application deadline Cutoff release date Counseling dates Seat allocation date</t>
+  </si>
+  <si>
+    <t>Yes, there may be a grace period for submitting required documents after the deadline. However, the grace period is usually short and it is advisable to submit the documents on time.</t>
+  </si>
+  <si>
+    <t>The college may conduct a second round of admissions for vacant seats. The second round of admissions is usually conducted online and the process is similar to the first round of admissions.</t>
+  </si>
+  <si>
+    <t>International or NRI students must apply through the same process as Indian students. However, they may be required to submit additional documents, such as a passport and visa.</t>
+  </si>
+  <si>
+    <t>Yes, there may be additional requirements or documentation for international applicants. The college will provide the details of the requirements in due course</t>
+  </si>
+  <si>
+    <t>Yes, many colleges in Maharashtra have collaborations with industries for internships or placements. This provides students with the opportunity to gain practical experience and to network with industry professionals.</t>
+  </si>
+  <si>
+    <t>You can explore internship opportunities by talking to your professors, seniors, or the college placement cell. You can also search for internships online.</t>
+  </si>
+  <si>
+    <t>The campus life and extracurricular activities available for students vary from college to college. However, some of the common activities include: Sports Clubs and societies Cultural events Debates and competitions</t>
+  </si>
+  <si>
+    <t>Yes, you can participate in clubs or organizations related to your field of study. This is a great way to learn more about your field, meet other students with similar interests, and get involved in extracurricular activities. Here are some of the clubs and organizations that you can participate in: Technical clubs: These clubs focus on technical topics, such as computer science, electrical engineering, and mechanical engineering. They often organize workshops, seminars, and competitions. Literary clubs: These clubs focus on literature, writing, and debate. They often organize book clubs, poetry readings, and debates. Cultural clubs: These clubs focus on cultural activities, such as dance, music, and art. They often organize performances, workshops, and exhibitions. Sports clubs: These clubs focus on sports, such as cricket, football, and basketball. They often organize tournaments, matches, and training sessions. Social service clubs: These clubs focus on social service activities, such as volunteering, fundraising, and awareness campaigns. Participating in clubs and organizations can help you develop your skills, make new friends, and have a well-rounded college experience.</t>
+  </si>
+  <si>
+    <t>Can students apply for study abroad programs or participate in international exchange opportunities?</t>
+  </si>
+  <si>
+    <t>Yes, students have the opportunity to apply for study abroad programs and participate in international exchange opportunities with partner universities.</t>
+  </si>
+  <si>
+    <t>What are the opportunities for students to engage in community service and social impact projects?</t>
+  </si>
+  <si>
+    <t>Students can participate in various community service projects and social impact initiatives organized by student-led clubs and organizations.</t>
+  </si>
+  <si>
+    <t>How does the college support students in preparing for competitive exams and certifications?</t>
+  </si>
+  <si>
+    <t>We provide coaching, resources, and guidance to help students prepare for competitive exams and certifications relevant to their field of study.</t>
+  </si>
+  <si>
+    <t>How does the college engage with alumni for mentorship and career guidance?</t>
+  </si>
+  <si>
+    <t>We facilitate alumni mentorship programs, networking events, and alumni career talks to connect current students with successful alumni.</t>
+  </si>
+  <si>
+    <t>Tell me about any collaborations with industry associations or professional bodies.</t>
+  </si>
+  <si>
+    <t>We have collaborations with industry associations and professional bodies to provide students with opportunities for industry exposure and networking.</t>
+  </si>
+  <si>
+    <t>Tell me about any notable alumni of the college who have achieved success in their careers.</t>
+  </si>
+  <si>
+    <t>We have alumni who have excelled in various fields, including entrepreneurs, researchers, and professionals in multinational companies.</t>
+  </si>
+  <si>
+    <t>What is the process for applying for a student loan through the college?</t>
+  </si>
+  <si>
+    <t>Information on applying for student loans through tie-ups with financial institutions can be obtained from the admissions office.</t>
+  </si>
+  <si>
+    <t>Can students get involved in organizing events and fests on campus?</t>
+  </si>
+  <si>
+    <t>Yes, students have the opportunity to take part in event planning and organization through student committees and clubs.</t>
+  </si>
+  <si>
+    <t>Describe any collaborations with international universities for student exchange programs.</t>
+  </si>
+  <si>
+    <t>We have collaborations with several international universities, offering opportunities for student exchange programs and joint research endeavors.</t>
+  </si>
+  <si>
+    <t>Are study abroad programs conducted here?</t>
+  </si>
+  <si>
+    <t>Yes, we conduct study abroad programs.</t>
+  </si>
+  <si>
+    <t>What is the intake of B.Tech Computer Science?</t>
+  </si>
+  <si>
+    <t>We currently have an intake of 240 students for this program</t>
+  </si>
+  <si>
+    <t>What is the intake of B.Tech Information Technology?</t>
+  </si>
+  <si>
+    <t>We currently have an intake of 180 students for this program</t>
+  </si>
+  <si>
+    <t>What is the intake of B.Tech CS?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,8 +351,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,7 +393,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -137,7 +405,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -184,23 +452,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -236,23 +487,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,16 +638,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFD1A18-71FD-4D20-BF98-08797F7B296C}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -424,20 +659,364 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/routes/training_set.xlsx
+++ b/backend/routes/training_set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a769a88f1f7a71a/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01F3786-D64F-4A18-BF97-73DDF62ED56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C1B701-7BFD-42DB-B0E6-45DF69ED26D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
   <si>
     <t>Questions</t>
   </si>
@@ -298,6 +298,78 @@
   </si>
   <si>
     <t>What is the intake of B.Tech CS?</t>
+  </si>
+  <si>
+    <t>Where can I find the syllabus for my course?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We provide syllabus of whichever branch you want at our college website just click on the link www.viit.ac.in </t>
+  </si>
+  <si>
+    <t>What are some campus dining options?</t>
+  </si>
+  <si>
+    <t>Hello! 😊 How can I assist you today? If you have any questions or need information, feel free to ask.</t>
+  </si>
+  <si>
+    <t>We have a variety of canteen in campus none of which you'll like but you have to eat it.</t>
+  </si>
+  <si>
+    <t>Hi,Hello,Hola</t>
+  </si>
+  <si>
+    <t>How can I join a student club or organization?</t>
+  </si>
+  <si>
+    <t>You'll get all the information about the clubs and organizations through your email id's alongside with the recruitment process and link to register to it.</t>
+  </si>
+  <si>
+    <t>Are there any upcoming campus events?</t>
+  </si>
+  <si>
+    <t>Yes, we have a busy events calendar. Check our events page on the college website or follow our social media accounts for the latest updates.</t>
+  </si>
+  <si>
+    <t>How do I connect to the campus Wi-Fi?</t>
+  </si>
+  <si>
+    <t>You can connect to the campus Wi-Fi by selecting the network "Building_Name" and entering your student credentials and the password provided by your lab assistants.</t>
+  </si>
+  <si>
+    <t>How do I register for Subjects?</t>
+  </si>
+  <si>
+    <t>You can do the subject registration through our college's erp system (https://learner.vierp.in/).</t>
+  </si>
+  <si>
+    <t>How can I access online library resources for research?</t>
+  </si>
+  <si>
+    <t>You can access online library resources, including databases and e-books, by logging in with your student credentials on the library website.</t>
+  </si>
+  <si>
+    <t>I am unable to do the subject registration</t>
+  </si>
+  <si>
+    <t>You first have to pay the total pending fees then only you'll be able to do the subject registration</t>
+  </si>
+  <si>
+    <t>I have paid all the pending fees still I am unable to do the subject registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For that issue you can contact our accout's person at xxxxxxxxxx. </t>
+  </si>
+  <si>
+    <t>How can I select the open elective subject.</t>
+  </si>
+  <si>
+    <t>You'll se a dropdown just below your subjects at ht epage you are doing subject registration there you can select the particular elective of your choice.</t>
+  </si>
+  <si>
+    <t>I am unable to see the particular elective of my choice in the options.</t>
+  </si>
+  <si>
+    <t>Sorry for the inconvinience.The seat's of the particular subject you want might've been totally filled.</t>
   </si>
 </sst>
 </file>
@@ -639,16 +711,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="90.109375" customWidth="1"/>
+    <col min="2" max="2" width="116.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1019,7 +1091,104 @@
         <v>87</v>
       </c>
     </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/routes/training_set.xlsx
+++ b/backend/routes/training_set.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a769a88f1f7a71a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38C1B701-7BFD-42DB-B0E6-45DF69ED26D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BD555A-A3C7-4302-AE5B-96F16A9DE6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
   <si>
     <t>Questions</t>
   </si>
@@ -57,21 +57,12 @@
     <t>Are there any additional exams or assessments required for admissions?</t>
   </si>
   <si>
-    <t>What is the cutoff score for MHT-CET and JEE for Computer Science?</t>
-  </si>
-  <si>
-    <t>What is the cutoff score for MHT-CET and JEE for AIDS?</t>
-  </si>
-  <si>
     <t>What is the cutoff score for MHT-CET and JEE for EnTC?</t>
   </si>
   <si>
     <t>What is the cutoff score for MHT-CET and JEE for Civil?</t>
   </si>
   <si>
-    <t>What is the cutoff score for MHT-CET and JEE for IT?</t>
-  </si>
-  <si>
     <t>Are there any reservation criteria for admissions through JEE Main?</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>What is the process for changing my program preference after admission?</t>
   </si>
   <si>
-    <t>What are the accommodation options available for admitted students?</t>
-  </si>
-  <si>
     <t>Can I apply for on-campus housing after being admitted?</t>
   </si>
   <si>
@@ -285,19 +273,31 @@
     <t>Yes, we conduct study abroad programs.</t>
   </si>
   <si>
-    <t>What is the intake of B.Tech Computer Science?</t>
-  </si>
-  <si>
     <t>We currently have an intake of 240 students for this program</t>
   </si>
   <si>
-    <t>What is the intake of B.Tech Information Technology?</t>
-  </si>
-  <si>
     <t>We currently have an intake of 180 students for this program</t>
   </si>
   <si>
-    <t>What is the intake of B.Tech CS?</t>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>What is the cutoff score for MHT-CET and JEE for IT(Information Technology)?</t>
+  </si>
+  <si>
+    <t>What is the cutoff score for MHT-CET and JEE for CS(Computer Science)?</t>
+  </si>
+  <si>
+    <t>Where is the college located?</t>
+  </si>
+  <si>
+    <t>VIIT is located in Kondhwa</t>
+  </si>
+  <si>
+    <t>What is the intake of B.Tech IT(Information Technology)?</t>
+  </si>
+  <si>
+    <t>What is the intake of B.Tech CS(Computer Science)?</t>
   </si>
   <si>
     <t>Where can I find the syllabus for my course?</t>
@@ -309,15 +309,15 @@
     <t>What are some campus dining options?</t>
   </si>
   <si>
+    <t>We have a variety of canteen in campus none of which you'll like but you have to eat it.</t>
+  </si>
+  <si>
+    <t>Hi,Hello,Hola</t>
+  </si>
+  <si>
     <t>Hello! 😊 How can I assist you today? If you have any questions or need information, feel free to ask.</t>
   </si>
   <si>
-    <t>We have a variety of canteen in campus none of which you'll like but you have to eat it.</t>
-  </si>
-  <si>
-    <t>Hi,Hello,Hola</t>
-  </si>
-  <si>
     <t>How can I join a student club or organization?</t>
   </si>
   <si>
@@ -360,9 +360,6 @@
     <t xml:space="preserve">For that issue you can contact our accout's person at xxxxxxxxxx. </t>
   </si>
   <si>
-    <t>How can I select the open elective subject.</t>
-  </si>
-  <si>
     <t>You'll se a dropdown just below your subjects at ht epage you are doing subject registration there you can select the particular elective of your choice.</t>
   </si>
   <si>
@@ -370,6 +367,45 @@
   </si>
   <si>
     <t>Sorry for the inconvinience.The seat's of the particular subject you want might've been totally filled.</t>
+  </si>
+  <si>
+    <t>What is the cutoff score for MHT-CET and JEE for AIDS(Arificial Intelligence and Data Science)?</t>
+  </si>
+  <si>
+    <t>How can I select the open elective subject?</t>
+  </si>
+  <si>
+    <t>How to do Subject Registration?</t>
+  </si>
+  <si>
+    <t>Login into your VIERP account and there you can do the subject registration.</t>
+  </si>
+  <si>
+    <t>IT(Information Technology) cutoff?</t>
+  </si>
+  <si>
+    <t>CS(Computer Science) cutoff?</t>
+  </si>
+  <si>
+    <t>IT(Information Technology) intake?</t>
+  </si>
+  <si>
+    <t>CS(Computer Science) intake?</t>
+  </si>
+  <si>
+    <t>Location of College</t>
+  </si>
+  <si>
+    <t>Name of College</t>
+  </si>
+  <si>
+    <t>Vishwakarma Institute of Information Technology(VIIT). It is located in Kondhwa.</t>
+  </si>
+  <si>
+    <t>What are the accommodation/hostel options available for admitted students?</t>
+  </si>
+  <si>
+    <t>What are the hostel facilities available for admitted students?</t>
   </si>
 </sst>
 </file>
@@ -711,405 +747,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.109375" customWidth="1"/>
-    <col min="2" max="2" width="116.5546875" customWidth="1"/>
+    <col min="1" max="1" width="96.44140625" customWidth="1"/>
+    <col min="2" max="2" width="97.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B33" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B34" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B35" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="C36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="C38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="C39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="C40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+      <c r="C41" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
+      <c r="C42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="C43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>96</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>94</v>
@@ -1117,78 +1288,144 @@
     </row>
     <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>114</v>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/routes/training_set.xlsx
+++ b/backend/routes/training_set.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatbot\backend\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BD555A-A3C7-4302-AE5B-96F16A9DE6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851A747E-0215-4C47-BABD-E6CB0C223970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="194">
   <si>
     <t>Questions</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Can I apply for admissions before receiving my MHT-CET or JEE scores?</t>
   </si>
   <si>
-    <t>How are the counseling and seat allocation processes conducted?</t>
-  </si>
-  <si>
     <t>What are the documents required for admission?</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
     <t>We currently have an intake of 180 students for this program</t>
   </si>
   <si>
-    <t>Context</t>
-  </si>
-  <si>
     <t>What is the cutoff score for MHT-CET and JEE for IT(Information Technology)?</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
     <t>Where is the college located?</t>
   </si>
   <si>
-    <t>VIIT is located in Kondhwa</t>
-  </si>
-  <si>
     <t>What is the intake of B.Tech IT(Information Technology)?</t>
   </si>
   <si>
@@ -399,13 +390,223 @@
     <t>Name of College</t>
   </si>
   <si>
-    <t>Vishwakarma Institute of Information Technology(VIIT). It is located in Kondhwa.</t>
-  </si>
-  <si>
     <t>What are the accommodation/hostel options available for admitted students?</t>
   </si>
   <si>
     <t>What are the hostel facilities available for admitted students?</t>
+  </si>
+  <si>
+    <t>What are the branches available in this college?</t>
+  </si>
+  <si>
+    <t>What are the branches available in VIIT college?</t>
+  </si>
+  <si>
+    <t>We have Civil Engineering, Computer Engineering, Information Technology, Electronics and Telecommunication, Artificial Intelligence and Data Science and Mechanical Engineering depatments.</t>
+  </si>
+  <si>
+    <t>We offer Civil Engineering, Computer Engineering, Information Technology, Electronics and Telecommunication, Artificial Intelligence and Data Science and Mechanical Engineering branches.</t>
+  </si>
+  <si>
+    <t>What are the departments in VIIT college?</t>
+  </si>
+  <si>
+    <t>What are the departments available in this college?</t>
+  </si>
+  <si>
+    <t>What are the different departments this college has?</t>
+  </si>
+  <si>
+    <t>What are various branches you have in this college?</t>
+  </si>
+  <si>
+    <t>What are various branches you have in VIIT college?</t>
+  </si>
+  <si>
+    <t>What are the different departments available here?</t>
+  </si>
+  <si>
+    <t>What are the different branches available here?</t>
+  </si>
+  <si>
+    <t>Are there any wifi facilities on campus?</t>
+  </si>
+  <si>
+    <t>Yes, we offer Wi-Fi facility.</t>
+  </si>
+  <si>
+    <t>What about the wifi facilities in the college?</t>
+  </si>
+  <si>
+    <t>What about the wifi facility in the college?</t>
+  </si>
+  <si>
+    <t>How do I connect to the campus wifi?</t>
+  </si>
+  <si>
+    <t>What is the address of VIIT college?</t>
+  </si>
+  <si>
+    <t>VIIT college is located in Kondhwa, Pune.</t>
+  </si>
+  <si>
+    <t>Vishwakarma Institute of Information Technology(VIIT). It is located in Kondhwa, Pune.</t>
+  </si>
+  <si>
+    <t>VIIT is located in Kondhwa, Pune</t>
+  </si>
+  <si>
+    <t>Do you conduct study abroad programs?</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>How are you?</t>
+  </si>
+  <si>
+    <t>Where is the college?</t>
+  </si>
+  <si>
+    <t>Where is VIIT college?</t>
+  </si>
+  <si>
+    <t>What is the process for candidates that are applying through JEE scores?</t>
+  </si>
+  <si>
+    <t>There is no separate application process for candidates applying with JEE scores. You can apply through the same online application form as candidates applying with MHT-CET scores.</t>
+  </si>
+  <si>
+    <t>What will be the process for candidates to apply through JEE marks?</t>
+  </si>
+  <si>
+    <t>What will be the process for candidates to apply through JEE scores?</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>heLLo</t>
+  </si>
+  <si>
+    <t>What will be the process for candidates that are going to apply through JEE scores?</t>
+  </si>
+  <si>
+    <t>How are the counselling and seat allocation processes conducted?</t>
+  </si>
+  <si>
+    <t>How do you conduct counselling and seat allocation process?</t>
+  </si>
+  <si>
+    <t>Counselling Process</t>
+  </si>
+  <si>
+    <t>Seat Allocation Process</t>
+  </si>
+  <si>
+    <t>How are the seats allocated?</t>
+  </si>
+  <si>
+    <t>How will I get my seat allocated?</t>
+  </si>
+  <si>
+    <t>How does the seat allocation process work?</t>
+  </si>
+  <si>
+    <t>What about the branches available here?</t>
+  </si>
+  <si>
+    <t>What are the total seats available in CS department?</t>
+  </si>
+  <si>
+    <t>What are the total seats available in IT department?</t>
+  </si>
+  <si>
+    <t>What are the total seats offered in CS(Computer Science) Department?</t>
+  </si>
+  <si>
+    <t>What are the total seats offered in IT(Information Technology) Department?</t>
+  </si>
+  <si>
+    <t>Total number of seats in IT(Information Technology) department?</t>
+  </si>
+  <si>
+    <t>Total number of seats in CS(Computer Science) department?</t>
+  </si>
+  <si>
+    <t>What is the total intake of CS(Computer Science) department?</t>
+  </si>
+  <si>
+    <t>What is the total intake of CS department?</t>
+  </si>
+  <si>
+    <t>Total number of seats offered in IT(Information Technology) department?</t>
+  </si>
+  <si>
+    <t>Total number of seats available in IT(Information Technology) department?</t>
+  </si>
+  <si>
+    <t>How can I connect to college wifi?</t>
+  </si>
+  <si>
+    <t>How can I connect to campus wifi?</t>
+  </si>
+  <si>
+    <t>What are dining options in the college?</t>
+  </si>
+  <si>
+    <t>Do you have any dining options in the college?</t>
+  </si>
+  <si>
+    <t>Do you have any dining options on campus?</t>
+  </si>
+  <si>
+    <t>Is there canteen facilities available in the college?</t>
+  </si>
+  <si>
+    <t>Is there any way that I can join student club or organization?</t>
+  </si>
+  <si>
+    <t>What are dining options available here?</t>
+  </si>
+  <si>
+    <t>What are some campus canteen options?</t>
+  </si>
+  <si>
+    <t>Do you have any canteen facility available?</t>
+  </si>
+  <si>
+    <t>Are there any canteens available here?</t>
+  </si>
+  <si>
+    <t>Are there any canteens available near campus?</t>
+  </si>
+  <si>
+    <t>What about the canteen facility present here?</t>
+  </si>
+  <si>
+    <t>What is the process to apply through JEE in this college?</t>
+  </si>
+  <si>
+    <t>Application through JEE score in this college?</t>
+  </si>
+  <si>
+    <t>Application through JEE score in VIIT college?</t>
+  </si>
+  <si>
+    <t>How can I submit my MHT-CET and JEE scores during the application process?</t>
+  </si>
+  <si>
+    <t>Elaborate the eligibility criteria for admissions through MHT-CET and JEE scores?</t>
+  </si>
+  <si>
+    <t>What are the criteria to get admissions through MHT-CET and JEE scores?</t>
+  </si>
+  <si>
+    <t>What are the eligibility criteria to get admissions through MHT-CET and JEE scores?</t>
   </si>
 </sst>
 </file>
@@ -747,10 +948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,673 +961,1052 @@
     <col min="2" max="2" width="97.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B28" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B29" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B30" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B32" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>81</v>
+      <c r="A37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" t="s">
-        <v>83</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B73" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
+      <c r="B96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="B100" t="s">
         <v>126</v>
       </c>
-      <c r="B66" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" t="s">
-        <v>51</v>
+    </row>
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>175</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>144</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>188</v>
+      </c>
+      <c r="B128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>189</v>
+      </c>
+      <c r="B129" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/routes/training_set.xlsx
+++ b/backend/routes/training_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chatbot\backend\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851A747E-0215-4C47-BABD-E6CB0C223970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EAFBEC-4998-450B-8585-34C2A010A823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="200">
   <si>
     <t>Questions</t>
   </si>
@@ -483,9 +483,6 @@
     <t>What will be the process for candidates to apply through JEE marks?</t>
   </si>
   <si>
-    <t>What will be the process for candidates to apply through JEE scores?</t>
-  </si>
-  <si>
     <t>hello</t>
   </si>
   <si>
@@ -607,6 +604,27 @@
   </si>
   <si>
     <t>What are the eligibility criteria to get admissions through MHT-CET and JEE scores?</t>
+  </si>
+  <si>
+    <t>Tell me the cutoff score for IT department?</t>
+  </si>
+  <si>
+    <t>What is the cut off score for IT department?</t>
+  </si>
+  <si>
+    <t>Cut off score for IT department?</t>
+  </si>
+  <si>
+    <t>What is the cutoff score for CS department?</t>
+  </si>
+  <si>
+    <t>What is the cutoff score for Computer Science department?</t>
+  </si>
+  <si>
+    <t>What is the cut off score for Information Technology department?</t>
+  </si>
+  <si>
+    <t>Will I be able to apply for admission based on both MHT-CET and JEE scores?</t>
   </si>
 </sst>
 </file>
@@ -949,10 +967,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,7 +989,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -979,7 +997,7 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -987,7 +1005,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -1001,9 +1019,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -1011,31 +1029,31 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -1043,95 +1061,95 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
@@ -1147,7 +1165,7 @@
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
@@ -1155,7 +1173,7 @@
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
@@ -1171,7 +1189,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
@@ -1179,275 +1197,275 @@
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" t="s">
-        <v>57</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>86</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>88</v>
+      <c r="A58" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>91</v>
@@ -1455,7 +1473,7 @@
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>91</v>
@@ -1463,13 +1481,13 @@
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>185</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
@@ -1495,7 +1513,7 @@
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>91</v>
@@ -1519,167 +1537,167 @@
     </row>
     <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>94</v>
+      <c r="A72" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>96</v>
+      <c r="A73" t="s">
+        <v>94</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B82" t="s">
-        <v>38</v>
+        <v>113</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B89" t="s">
         <v>82</v>
@@ -1687,7 +1705,7 @@
     </row>
     <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
         <v>82</v>
@@ -1695,119 +1713,119 @@
     </row>
     <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="B100" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s">
         <v>126</v>
@@ -1815,193 +1833,241 @@
     </row>
     <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B107" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>134</v>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B110" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>174</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>99</v>
+      <c r="A111" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B111" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>175</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>99</v>
+      <c r="A112" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="B114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>93</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>145</v>
+      <c r="A119" t="s">
+        <v>174</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>146</v>
+      <c r="A120" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>147</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>139</v>
       </c>
       <c r="B121" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>148</v>
-      </c>
-      <c r="B122" t="s">
-        <v>140</v>
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B123" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>151</v>
-      </c>
-      <c r="B124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>152</v>
-      </c>
-      <c r="B125" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>155</v>
-      </c>
-      <c r="B126" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>187</v>
-      </c>
-      <c r="B127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>188</v>
+        <v>146</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="B128" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="B129" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>186</v>
+      </c>
+      <c r="B133" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>187</v>
+      </c>
+      <c r="B134" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>188</v>
+      </c>
+      <c r="B135" t="s">
         <v>150</v>
       </c>
     </row>
